--- a/plataforma-de-negocios.xlsx
+++ b/plataforma-de-negocios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/MyProjects/compareExcelEbcRuby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDA6FA-0B71-6B4A-9EEF-72A2D8C8027D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300DB50C-C578-744A-8D3B-0443348EF5A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
   <si>
     <t>CLAVE</t>
   </si>
@@ -840,82 +840,7 @@
 6.7 Intervalos de predicción.</t>
   </si>
   <si>
-    <t>ETE27304</t>
-  </si>
-  <si>
-    <t>ETE27305</t>
-  </si>
-  <si>
-    <t>ETE27306</t>
-  </si>
-  <si>
-    <t>ETE27307</t>
-  </si>
-  <si>
-    <t>ETE27308</t>
-  </si>
-  <si>
-    <t>ENE 27312</t>
-  </si>
-  <si>
-    <t>ENE 27313</t>
-  </si>
-  <si>
-    <t>ENE 27314</t>
-  </si>
-  <si>
-    <t>ENE 27315</t>
-  </si>
-  <si>
-    <t>ENE 27316</t>
-  </si>
-  <si>
-    <t>ENE27209</t>
-  </si>
-  <si>
-    <t>ENE27210</t>
-  </si>
-  <si>
-    <t>ENE27211</t>
-  </si>
-  <si>
-    <t>ENE27212</t>
-  </si>
-  <si>
-    <t>ENE27213</t>
-  </si>
-  <si>
-    <t>ENE27206</t>
-  </si>
-  <si>
-    <t>ENE27105</t>
-  </si>
-  <si>
-    <t>ENE27106</t>
-  </si>
-  <si>
-    <t>ENE27107</t>
-  </si>
-  <si>
-    <t>ENE27108</t>
-  </si>
-  <si>
-    <t>ENE27109</t>
-  </si>
-  <si>
-    <t>ETE27102</t>
-  </si>
-  <si>
     <t>ETE27103</t>
-  </si>
-  <si>
-    <t>ETE27104</t>
-  </si>
-  <si>
-    <t>ETE27105</t>
-  </si>
-  <si>
-    <t>ETE27106</t>
   </si>
 </sst>
 </file>
@@ -1098,16 +1023,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,12 +1351,12 @@
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1451,7 +1376,7 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10"/>
@@ -1465,7 +1390,7 @@
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>6</v>
@@ -1473,7 +1398,7 @@
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10"/>
@@ -1487,7 +1412,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
@@ -1509,7 +1434,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
@@ -1531,7 +1456,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
@@ -1553,7 +1478,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>6</v>
@@ -1597,7 +1522,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
@@ -1619,7 +1544,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>20</v>
@@ -1641,7 +1566,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>20</v>
@@ -1663,7 +1588,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>20</v>
@@ -1685,7 +1610,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>20</v>
@@ -1729,7 +1654,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>34</v>
@@ -1751,7 +1676,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>34</v>
@@ -1773,7 +1698,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>34</v>
@@ -1795,7 +1720,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>34</v>
@@ -1817,7 +1742,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>34</v>
@@ -1861,7 +1786,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>48</v>
@@ -1883,7 +1808,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>48</v>
@@ -1905,7 +1830,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>48</v>
@@ -1927,7 +1852,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>48</v>
@@ -1949,7 +1874,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>48</v>
@@ -1970,12 +1895,12 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2009,7 +1934,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>63</v>
@@ -2031,7 +1956,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>63</v>
@@ -2053,7 +1978,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>63</v>
@@ -2075,7 +2000,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>63</v>
@@ -2097,7 +2022,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>63</v>
@@ -2141,7 +2066,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>77</v>
@@ -2163,7 +2088,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>77</v>
@@ -2185,7 +2110,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>77</v>
@@ -2207,7 +2132,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>77</v>
@@ -2229,7 +2154,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>77</v>
@@ -2273,7 +2198,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>91</v>
@@ -2295,7 +2220,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>91</v>
@@ -2317,7 +2242,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>91</v>
@@ -2339,7 +2264,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>91</v>
@@ -2361,7 +2286,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>91</v>
@@ -2405,7 +2330,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>105</v>
@@ -2427,7 +2352,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>105</v>
@@ -2449,7 +2374,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>105</v>
@@ -2471,7 +2396,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>105</v>
@@ -2493,7 +2418,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>105</v>
@@ -2537,7 +2462,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>119</v>
@@ -2559,7 +2484,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>119</v>
@@ -2581,7 +2506,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>119</v>
@@ -2603,7 +2528,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>119</v>
@@ -2625,7 +2550,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>119</v>
@@ -2646,12 +2571,12 @@
       <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -2685,7 +2610,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>134</v>
@@ -2707,7 +2632,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>134</v>
@@ -2729,7 +2654,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>134</v>
@@ -2751,7 +2676,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>134</v>
@@ -2773,7 +2698,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>134</v>
@@ -2817,7 +2742,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>148</v>
@@ -2839,7 +2764,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>148</v>
@@ -2861,7 +2786,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>148</v>
@@ -2883,7 +2808,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>148</v>
@@ -2905,7 +2830,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>148</v>
@@ -2949,7 +2874,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>162</v>
@@ -2971,7 +2896,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>162</v>
@@ -2993,7 +2918,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>162</v>
@@ -3015,7 +2940,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>162</v>
@@ -3037,7 +2962,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>162</v>
@@ -3081,7 +3006,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>176</v>
@@ -3103,7 +3028,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>176</v>
@@ -3125,7 +3050,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>176</v>
@@ -3147,7 +3072,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>176</v>
@@ -3169,7 +3094,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>176</v>
